--- a/Supplementary_File.xlsx
+++ b/Supplementary_File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Files to send to Jeff\The Lancet Regional Health - Europe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Files to send to Jeff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62D59C-8DDF-4D4E-9797-B51638DC2F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A86523-0949-48B4-9035-A6B253A6BF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="11" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Minimum quarantine duration</t>
-  </si>
-  <si>
     <t>No test</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>Daily incidence (Destination)</t>
-  </si>
-  <si>
-    <t>Daily incidence (Origin)</t>
   </si>
   <si>
     <t>Total Population size</t>
@@ -289,6 +283,12 @@
   <si>
     <t>Effective reproductive number</t>
   </si>
+  <si>
+    <t xml:space="preserve">This spreadsheet provides quarantine durations for the destination country for the scenarios of i) not testing; ii) an RT-PCR test on exit; iii) a rapid antigen test on exit; and iv) a rapid antigen test on entry and exit </t>
+  </si>
+  <si>
+    <t>Minimum quarantine duration for destination country</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +297,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="181" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -421,6 +421,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,7 +443,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,15 +2111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2444,13 +2444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B931734-EC4F-4AE1-AA6C-3952C21C7F15}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="197.42578125" style="18" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="18"/>
@@ -2458,32 +2458,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2511,25 +2516,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>5.72</v>
@@ -2541,7 +2546,7 @@
         <v>11.66</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>5.72</v>
@@ -2553,7 +2558,7 @@
         <v>11.66</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>5.72</v>
@@ -2578,7 +2583,7 @@
       <c r="D3">
         <v>0.25535552486899588</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -2591,7 +2596,7 @@
       <c r="I3">
         <v>0.29546704851426625</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="3">
         <v>0</v>
       </c>
@@ -2618,7 +2623,7 @@
       <c r="D4">
         <v>0.23434086077470392</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="I4">
         <v>0.26980594750433262</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="3">
         <v>1</v>
       </c>
@@ -2658,7 +2663,7 @@
       <c r="D5">
         <v>0.21033226434985633</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
@@ -2671,7 +2676,7 @@
       <c r="I5">
         <v>0.23932760257445265</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="3">
         <v>2</v>
       </c>
@@ -2698,7 +2703,7 @@
       <c r="D6">
         <v>0.18403858755373281</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
@@ -2711,7 +2716,7 @@
       <c r="I6">
         <v>0.20505202394808716</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3">
         <v>3</v>
       </c>
@@ -2738,7 +2743,7 @@
       <c r="D7">
         <v>0.1562879452230069</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
@@ -2751,7 +2756,7 @@
       <c r="I7">
         <v>0.16827253989545474</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="3">
         <v>4</v>
       </c>
@@ -2778,7 +2783,7 @@
       <c r="D8">
         <v>0.12778035449324682</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="3">
         <v>5</v>
       </c>
@@ -2791,7 +2796,7 @@
       <c r="I8">
         <v>0.13019870317192028</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="3">
         <v>5</v>
       </c>
@@ -2818,7 +2823,7 @@
       <c r="D9">
         <v>9.9535225433354191E-2</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="3">
         <v>6</v>
       </c>
@@ -2831,7 +2836,7 @@
       <c r="I9">
         <v>9.2530644288693967E-2</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="3">
         <v>6</v>
       </c>
@@ -2858,7 +2863,7 @@
       <c r="D10">
         <v>7.3879102905091712E-2</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="3">
         <v>7</v>
       </c>
@@ -2871,7 +2876,7 @@
       <c r="I10">
         <v>5.8611035400966467E-2</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="3">
         <v>7</v>
       </c>
@@ -2898,7 +2903,7 @@
       <c r="D11">
         <v>5.3395335829701164E-2</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3">
         <v>8</v>
       </c>
@@ -2911,7 +2916,7 @@
       <c r="I11">
         <v>3.2212495189285172E-2</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="3">
         <v>8</v>
       </c>
@@ -2938,7 +2943,7 @@
       <c r="D12">
         <v>3.8901041615809664E-2</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="3">
         <v>9</v>
       </c>
@@ -2951,7 +2956,7 @@
       <c r="I12">
         <v>1.4746310574669548E-2</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="3">
         <v>9</v>
       </c>
@@ -2978,7 +2983,7 @@
       <c r="D13">
         <v>2.9405131771681008E-2</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="3">
         <v>10</v>
       </c>
@@ -2991,7 +2996,7 @@
       <c r="I13">
         <v>5.0077813705254283E-3</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="3">
         <v>10</v>
       </c>
@@ -3018,7 +3023,7 @@
       <c r="D14">
         <v>2.3191792971129579E-2</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3">
         <v>11</v>
       </c>
@@ -3031,7 +3036,7 @@
       <c r="I14">
         <v>7.2241353100333536E-4</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="3">
         <v>11</v>
       </c>
@@ -3058,7 +3063,7 @@
       <c r="D15">
         <v>1.8646849467599026E-2</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="3">
         <v>12</v>
       </c>
@@ -3071,7 +3076,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="3">
         <v>12</v>
       </c>
@@ -3098,7 +3103,7 @@
       <c r="D16">
         <v>1.4592350976545576E-2</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3">
         <v>13</v>
       </c>
@@ -3111,7 +3116,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="3">
         <v>13</v>
       </c>
@@ -3138,7 +3143,7 @@
       <c r="D17">
         <v>1.0916805596572045E-2</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3">
         <v>14</v>
       </c>
@@ -3151,7 +3156,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="3">
         <v>14</v>
       </c>
@@ -3187,16 +3192,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -3643,38 +3648,39 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039E9861-575E-41C5-862B-C66DEADDB128}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="I1" s="16" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3700,7 +3706,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" cm="1">
         <f t="array" ref="I2">_xlfn.XLOOKUP(MAX(IF(Calculation_PQT!H4:H18&lt;=Calculation_PQT!H68,Calculation_PQT!H4:H18)),Calculation_PQT!H4:H18,Calculation_PQT!A4:A18,Calculation_PQT!B67)</f>
@@ -3730,7 +3736,7 @@
         <v>0.91</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" cm="1">
         <f t="array" ref="I3">_xlfn.XLOOKUP(MAX(IF(Calculation_PQT!H20:H34&lt;=Calculation_PQT!H68,Calculation_PQT!H20:H34)),Calculation_PQT!H20:H34,Calculation_PQT!A20:A34,Calculation_PQT!B67)</f>
@@ -3760,7 +3766,7 @@
         <v>0.88</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" cm="1">
         <f t="array" ref="I4">_xlfn.XLOOKUP(MAX(IF(Calculation_PQT!H36:H50&lt;=Calculation_PQT!H68,Calculation_PQT!H36:H50)),Calculation_PQT!H36:H50,Calculation_PQT!A36:A50,Calculation_PQT!B67)</f>
@@ -3790,7 +3796,7 @@
         <v>0.32155966130135499</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2" cm="1">
         <f t="array" ref="I5">_xlfn.XLOOKUP(MAX(IF(Calculation_PQT!H52:H66&lt;=Calculation_PQT!H68,Calculation_PQT!H52:H66)),Calculation_PQT!H52:H66,Calculation_PQT!A36:A50,Calculation_PQT!B67)</f>
@@ -3822,7 +3828,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4">
         <v>4085250.9429365601</v>
@@ -3848,14 +3854,14 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -3974,7 +3980,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>4085250.9429365601</v>
@@ -4000,14 +4006,14 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
@@ -4032,7 +4038,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="17">
         <v>0.81910000000000005</v>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>5.72</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
@@ -4128,7 +4134,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -4136,7 +4142,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>1793.5110417420501</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="4">
         <v>1793.5110417420501</v>
@@ -4152,7 +4158,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="6">
         <v>3.6357826845925398</v>
@@ -4160,7 +4166,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6">
         <v>3.6357826845925398</v>
@@ -4168,18 +4174,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4">
         <v>345.92250810927197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="4">
-        <v>13836.900324370899</v>
       </c>
     </row>
   </sheetData>
@@ -4192,7 +4190,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"5.72,8.29,11.66"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B7:G7 B15:G15 B27:B32" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B7:G7 B15:G15 B27:B31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B26 B3:G6 B11:G14" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -4211,7 +4209,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,14 +4219,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -4252,7 +4250,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <f>Quarantine_Input!B7/SUM(Quarantine_Input!$B$7:$G$7)</f>
@@ -4281,7 +4279,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <f>MAX(Quarantine_Input!B3-Quarantine_Input!B4,0)</f>
@@ -4310,7 +4308,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <f>(1-Quarantine_Input!B5-Quarantine_Input!B6)*(Quarantine_Input!B20*Background_Calculations!B4+Quarantine_Input!B21*Quarantine_Input!B4)</f>
@@ -4339,7 +4337,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>B5+Quarantine_Input!B6+Quarantine_Input!B5</f>
@@ -4368,7 +4366,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <f>Quarantine_Input!$B$28/SUM(Quarantine_Input!$B$7:$G$7)</f>
@@ -4397,7 +4395,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <f>B6*B3</f>
@@ -4440,7 +4438,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="8">
         <f>SUM(Quarantine_Input!B7:G7)</f>
@@ -4449,7 +4447,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <f>MIN(SUM(B8:G8),1)</f>
@@ -4457,14 +4455,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -4488,7 +4486,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <f>Quarantine_Input!B15/SUM(Quarantine_Input!$B$15:$G$15)</f>
@@ -4517,7 +4515,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <f>MAX(Quarantine_Input!B11-Quarantine_Input!B12,0)</f>
@@ -4546,7 +4544,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <f>(1-Quarantine_Input!B13-Quarantine_Input!B14)*(Quarantine_Input!B20*Background_Calculations!B17+Quarantine_Input!B21*Quarantine_Input!B12)</f>
@@ -4575,7 +4573,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <f>B18+Quarantine_Input!B13+Quarantine_Input!B14</f>
@@ -4604,7 +4602,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <f>Quarantine_Input!$B$27/Background_Calculations!$B$23</f>
@@ -4633,7 +4631,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <f>B19*B16</f>
@@ -4664,9 +4662,9 @@
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9">
-        <f>Quarantine_Input!B32/Background_Calculations!B23</f>
-        <v>7.1428571428571461E-4</v>
+      <c r="B22" s="9" t="e">
+        <f>Quarantine_Input!#REF!/Background_Calculations!B23</f>
+        <v>#REF!</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4676,7 +4674,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="8">
         <f>SUM(Quarantine_Input!B15:G15)</f>
@@ -4685,7 +4683,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <f>SUM(B21:G21)</f>
@@ -4701,6 +4699,7 @@
     <mergeCell ref="B14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4712,42 +4711,42 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -4768,10 +4767,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4806,7 +4805,7 @@
         <f>SUM(B4:G4)</f>
         <v>240.58468194304012</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="20">
         <f>(H4-H68)/Background_Calculations!$B$10</f>
         <v>1.0768586683138938E-7</v>
       </c>
@@ -4843,7 +4842,7 @@
         <f t="shared" ref="H5:H18" si="0">SUM(B5:G5)</f>
         <v>240.16573728725709</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="20">
         <f>(H5-H69)/Background_Calculations!$B$10</f>
         <v>8.6059189202216358E-8</v>
       </c>
@@ -4880,7 +4879,7 @@
         <f t="shared" si="0"/>
         <v>239.74711453609183</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="20">
         <f>(H6-H70)/Background_Calculations!$B$10</f>
         <v>6.444912886914658E-8</v>
       </c>
@@ -4917,7 +4916,7 @@
         <f t="shared" si="0"/>
         <v>239.33610015246143</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="20">
         <f>(H7-H71)/Background_Calculations!$B$10</f>
         <v>4.3231826170502455E-8</v>
       </c>
@@ -4954,7 +4953,7 @@
         <f t="shared" si="0"/>
         <v>238.99464432305382</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="20">
         <f>(H8-H72)/Background_Calculations!$B$10</f>
         <v>2.5605261312196823E-8</v>
       </c>
@@ -4991,7 +4990,7 @@
         <f t="shared" si="0"/>
         <v>238.75923019503389</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="20">
         <f>(H9-H73)/Background_Calculations!$B$10</f>
         <v>1.3452760055141877E-8</v>
       </c>
@@ -5028,7 +5027,7 @@
         <f t="shared" si="0"/>
         <v>238.61254357546409</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="20">
         <f>(H10-H74)/Background_Calculations!$B$10</f>
         <v>5.8805325779348783E-9</v>
       </c>
@@ -5065,7 +5064,7 @@
         <f t="shared" si="0"/>
         <v>238.50747792980621</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="20">
         <f>(H11-H75)/Background_Calculations!$B$10</f>
         <v>4.5685473128275603E-10</v>
       </c>
@@ -5102,7 +5101,7 @@
         <f t="shared" si="0"/>
         <v>238.42459412220146</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="20">
         <f>(H12-H76)/Background_Calculations!$B$10</f>
         <v>-3.8217566867247393E-9</v>
       </c>
@@ -5139,7 +5138,7 @@
         <f t="shared" si="0"/>
         <v>238.35824837142252</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="20">
         <f>(H13-H77)/Background_Calculations!$B$10</f>
         <v>-7.2466438271984431E-9</v>
       </c>
@@ -5176,7 +5175,7 @@
         <f t="shared" si="0"/>
         <v>238.30409965547744</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="20">
         <f>(H14-H78)/Background_Calculations!$B$10</f>
         <v>-1.0041898063319485E-8</v>
       </c>
@@ -5213,7 +5212,7 @@
         <f t="shared" si="0"/>
         <v>238.2588794769587</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="20">
         <f>(H15-H79)/Background_Calculations!$B$10</f>
         <v>-1.2376245117659434E-8</v>
       </c>
@@ -5250,7 +5249,7 @@
         <f t="shared" si="0"/>
         <v>238.22015929692509</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="20">
         <f>(H16-H80)/Background_Calculations!$B$10</f>
         <v>-1.4375050544035449E-8</v>
       </c>
@@ -5287,7 +5286,7 @@
         <f t="shared" si="0"/>
         <v>238.18615152311597</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="20">
         <f>(H17-H81)/Background_Calculations!$B$10</f>
         <v>-1.6130593074303729E-8</v>
       </c>
@@ -5324,22 +5323,22 @@
         <f t="shared" si="0"/>
         <v>238.15554893065774</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="20">
         <f>(H18-H82)/Background_Calculations!$B$10</f>
         <v>-1.7710354010683112E-8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="A19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -5373,7 +5372,7 @@
         <f>SUM(B20:G20)</f>
         <v>239.58107652920057</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="20">
         <f>(H20-H68)/Background_Calculations!$B$10</f>
         <v>5.5877947927558826E-8</v>
       </c>
@@ -5410,7 +5409,7 @@
         <f t="shared" ref="H21:H34" si="1">SUM(B21:G21)</f>
         <v>239.16208098089254</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="20">
         <f>(H21-H69)/Background_Calculations!$B$10</f>
         <v>3.424864313459071E-8</v>
       </c>
@@ -5447,7 +5446,7 @@
         <f t="shared" si="1"/>
         <v>238.76672714674078</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="20">
         <f>(H22-H70)/Background_Calculations!$B$10</f>
         <v>1.3839766203873414E-8</v>
       </c>
@@ -5484,7 +5483,7 @@
         <f t="shared" si="1"/>
         <v>238.54268402210997</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="20">
         <f>(H23-H71)/Background_Calculations!$B$10</f>
         <v>2.2742566203534669E-9</v>
       </c>
@@ -5521,7 +5520,7 @@
         <f t="shared" si="1"/>
         <v>238.47580043465115</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="20">
         <f>(H24-H72)/Background_Calculations!$B$10</f>
         <v>-1.1783946181517975E-9</v>
       </c>
@@ -5558,7 +5557,7 @@
         <f t="shared" si="1"/>
         <v>238.45178044594246</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="20">
         <f>(H25-H73)/Background_Calculations!$B$10</f>
         <v>-2.4183496940513285E-9</v>
       </c>
@@ -5595,7 +5594,7 @@
         <f t="shared" si="1"/>
         <v>238.42509801359756</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="20">
         <f>(H26-H74)/Background_Calculations!$B$10</f>
         <v>-3.7957449053753433E-9</v>
       </c>
@@ -5632,7 +5631,7 @@
         <f t="shared" si="1"/>
         <v>238.39164400600109</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="20">
         <f>(H27-H75)/Background_Calculations!$B$10</f>
         <v>-5.5227010264424742E-9</v>
       </c>
@@ -5669,7 +5668,7 @@
         <f t="shared" si="1"/>
         <v>238.35410108151348</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="20">
         <f>(H28-H76)/Background_Calculations!$B$10</f>
         <v>-7.4607344013577867E-9</v>
       </c>
@@ -5706,7 +5705,7 @@
         <f t="shared" si="1"/>
         <v>238.31572749294432</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="20">
         <f>(H29-H77)/Background_Calculations!$B$10</f>
         <v>-9.4416481521456261E-9</v>
       </c>
@@ -5743,7 +5742,7 @@
         <f t="shared" si="1"/>
         <v>238.27858457096602</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="20">
         <f>(H30-H78)/Background_Calculations!$B$10</f>
         <v>-1.1359032677146573E-8</v>
       </c>
@@ -5780,7 +5779,7 @@
         <f t="shared" si="1"/>
         <v>238.24361757102523</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="20">
         <f>(H31-H79)/Background_Calculations!$B$10</f>
         <v>-1.3164092187848286E-8</v>
       </c>
@@ -5817,7 +5816,7 @@
         <f t="shared" si="1"/>
         <v>238.21105092571312</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="20">
         <f>(H32-H80)/Background_Calculations!$B$10</f>
         <v>-1.4845241069702476E-8</v>
       </c>
@@ -5854,7 +5853,7 @@
         <f t="shared" si="1"/>
         <v>238.18072717899466</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="20">
         <f>(H33-H81)/Background_Calculations!$B$10</f>
         <v>-1.6410607486808848E-8</v>
       </c>
@@ -5891,22 +5890,22 @@
         <f t="shared" si="1"/>
         <v>238.15232727032696</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="20">
         <f>(H34-H82)/Background_Calculations!$B$10</f>
         <v>-1.7876661919001584E-8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="A35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -5940,7 +5939,7 @@
         <f>SUM(B36:G36)</f>
         <v>239.61918265519489</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="20">
         <f>(H36-H68)/Background_Calculations!$B$10</f>
         <v>5.784505477854718E-8</v>
       </c>
@@ -5977,7 +5976,7 @@
         <f t="shared" ref="H37:H50" si="2">SUM(B37:G37)</f>
         <v>239.20029391312661</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="20">
         <f>(H37-H69)/Background_Calculations!$B$10</f>
         <v>3.6221263516027796E-8</v>
       </c>
@@ -6014,7 +6013,7 @@
         <f t="shared" si="2"/>
         <v>238.7990186652668</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="20">
         <f>(H38-H70)/Background_Calculations!$B$10</f>
         <v>1.5506712545541111E-8</v>
       </c>
@@ -6051,7 +6050,7 @@
         <f t="shared" si="2"/>
         <v>238.60482138746772</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="20">
         <f>(H39-H71)/Background_Calculations!$B$10</f>
         <v>5.4818993263014385E-9</v>
       </c>
@@ -6088,7 +6087,7 @@
         <f t="shared" si="2"/>
         <v>238.56685683012293</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="20">
         <f>(H40-H72)/Background_Calculations!$B$10</f>
         <v>3.5221005039593821E-9</v>
       </c>
@@ -6125,7 +6124,7 @@
         <f t="shared" si="2"/>
         <v>238.52727412782022</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="20">
         <f>(H41-H73)/Background_Calculations!$B$10</f>
         <v>1.4787701246943169E-9</v>
       </c>
@@ -6162,7 +6161,7 @@
         <f t="shared" si="2"/>
         <v>238.48134700682766</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="20">
         <f>(H42-H74)/Background_Calculations!$B$10</f>
         <v>-8.9207057331063009E-10</v>
       </c>
@@ -6199,7 +6198,7 @@
         <f t="shared" si="2"/>
         <v>238.43234756394403</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="20">
         <f>(H43-H75)/Background_Calculations!$B$10</f>
         <v>-3.4215100604252982E-9</v>
       </c>
@@ -6236,7 +6235,7 @@
         <f t="shared" si="2"/>
         <v>238.38283532908866</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="20">
         <f>(H44-H76)/Background_Calculations!$B$10</f>
         <v>-5.9774207926331961E-9</v>
       </c>
@@ -6273,7 +6272,7 @@
         <f t="shared" si="2"/>
         <v>238.33571539082442</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="20">
         <f>(H45-H77)/Background_Calculations!$B$10</f>
         <v>-8.4098368664047954E-9</v>
       </c>
@@ -6310,7 +6309,7 @@
         <f t="shared" si="2"/>
         <v>238.29231041702187</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="20">
         <f>(H46-H78)/Background_Calculations!$B$10</f>
         <v>-1.0650479784204978E-8</v>
       </c>
@@ -6347,7 +6346,7 @@
         <f t="shared" si="2"/>
         <v>238.25290790146494</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="20">
         <f>(H47-H79)/Background_Calculations!$B$10</f>
         <v>-1.2684508599145871E-8</v>
       </c>
@@ -6384,7 +6383,7 @@
         <f t="shared" si="2"/>
         <v>238.21723344896583</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="20">
         <f>(H48-H80)/Background_Calculations!$B$10</f>
         <v>-1.4526088084993336E-8</v>
       </c>
@@ -6421,7 +6420,7 @@
         <f t="shared" si="2"/>
         <v>238.18476433189039</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="20">
         <f>(H49-H81)/Background_Calculations!$B$10</f>
         <v>-1.6202202383627555E-8</v>
       </c>
@@ -6458,22 +6457,22 @@
         <f t="shared" si="2"/>
         <v>238.15491140834985</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="20">
         <f>(H50-H82)/Background_Calculations!$B$10</f>
         <v>-1.7743264060361484E-8</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="A51" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
@@ -6507,7 +6506,7 @@
         <f>SUM(B52:G52)</f>
         <v>239.41725727754144</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="20">
         <f>(H52-H68)/Background_Calculations!$B$10</f>
         <v>4.7421303126916583E-8</v>
       </c>
@@ -6544,7 +6543,7 @@
         <f t="shared" ref="H53:H66" si="3">SUM(B53:G53)</f>
         <v>239.07431603017076</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="20">
         <f>(H53-H69)/Background_Calculations!$B$10</f>
         <v>2.9718058318196497E-8</v>
       </c>
@@ -6581,7 +6580,7 @@
         <f t="shared" si="3"/>
         <v>238.67260302082892</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="20">
         <f>(H54-H70)/Background_Calculations!$B$10</f>
         <v>8.9809093116214942E-9</v>
       </c>
@@ -6618,7 +6617,7 @@
         <f t="shared" si="3"/>
         <v>238.48233477304257</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="20">
         <f>(H55-H71)/Background_Calculations!$B$10</f>
         <v>-8.4108030238137125E-10</v>
       </c>
@@ -6655,7 +6654,7 @@
         <f t="shared" si="3"/>
         <v>238.45518133515608</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I56" s="20">
         <f>(H56-H72)/Background_Calculations!$B$10</f>
         <v>-2.2427896680185768E-9</v>
       </c>
@@ -6692,7 +6691,7 @@
         <f t="shared" si="3"/>
         <v>238.43122719498061</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="20">
         <f>(H57-H73)/Background_Calculations!$B$10</f>
         <v>-3.4793455240439535E-9</v>
       </c>
@@ -6729,7 +6728,7 @@
         <f t="shared" si="3"/>
         <v>238.40261639266035</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="20">
         <f>(H58-H74)/Background_Calculations!$B$10</f>
         <v>-4.9562866663906238E-9</v>
       </c>
@@ -6766,7 +6765,7 @@
         <f t="shared" si="3"/>
         <v>238.37009050511656</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="20">
         <f>(H59-H75)/Background_Calculations!$B$10</f>
         <v>-6.6353315588416229E-9</v>
       </c>
@@ -6803,7 +6802,7 @@
         <f t="shared" si="3"/>
         <v>238.33495271140899</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="20">
         <f>(H60-H76)/Background_Calculations!$B$10</f>
         <v>-8.4492077513754915E-9</v>
       </c>
@@ -6840,7 +6839,7 @@
         <f t="shared" si="3"/>
         <v>238.29969870051562</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="20">
         <f>(H61-H77)/Background_Calculations!$B$10</f>
         <v>-1.026908328434105E-8</v>
       </c>
@@ -6877,7 +6876,7 @@
         <f t="shared" si="3"/>
         <v>238.26571484952936</v>
       </c>
-      <c r="I62" s="27">
+      <c r="I62" s="20">
         <f>(H62-H78)/Background_Calculations!$B$10</f>
         <v>-1.2023390875409414E-8</v>
       </c>
@@ -6914,7 +6913,7 @@
         <f t="shared" si="3"/>
         <v>238.23357827221727</v>
       </c>
-      <c r="I63" s="27">
+      <c r="I63" s="20">
         <f>(H63-H79)/Background_Calculations!$B$10</f>
         <v>-1.3682338872572651E-8</v>
       </c>
@@ -6951,7 +6950,7 @@
         <f t="shared" si="3"/>
         <v>238.20338400388846</v>
       </c>
-      <c r="I64" s="27">
+      <c r="I64" s="20">
         <f>(H64-H80)/Background_Calculations!$B$10</f>
         <v>-1.5241021382021273E-8</v>
       </c>
@@ -6988,7 +6987,7 @@
         <f t="shared" si="3"/>
         <v>238.17497718781934</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="20">
         <f>(H65-H81)/Background_Calculations!$B$10</f>
         <v>-1.6707432386715579E-8</v>
       </c>
@@ -7025,21 +7024,21 @@
         <f t="shared" si="3"/>
         <v>238.14809520578146</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="20">
         <f>(H66-H82)/Background_Calculations!$B$10</f>
         <v>-1.8095128712569867E-8</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="B67" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
@@ -7558,7 +7557,7 @@
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="14" customWidth="1"/>
@@ -7576,99 +7575,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="25" t="s">
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
+      <c r="A2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>9</v>
@@ -10015,45 +10014,45 @@
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
+      <c r="A19" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -12291,45 +12290,45 @@
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AK35" s="24"/>
+      <c r="A35" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="25"/>
+      <c r="AK35" s="25"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -14567,45 +14566,45 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
+      <c r="A51" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
+      <c r="AG51" s="25"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="25"/>
+      <c r="AJ51" s="25"/>
+      <c r="AK51" s="25"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
@@ -16856,6 +16855,7 @@
     <mergeCell ref="A19:AK19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16874,25 +16874,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>5.72</v>
@@ -16904,7 +16904,7 @@
         <v>11.66</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G2">
         <v>5.72</v>
@@ -16916,7 +16916,7 @@
         <v>11.66</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2">
         <v>5.72</v>
@@ -16930,7 +16930,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3">
         <v>0.53548478570168201</v>
@@ -16954,7 +16954,7 @@
         <v>0.45268050398054799</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -16988,7 +16988,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <f>Quarantine_Input!B$19*INDEX($B3:$D3,1,MATCH(Quarantine_Input!$B$23,Adjusted_RE!$B$2:$D$2))+Quarantine_Input!$B$26*(1-Quarantine_Input!B$19)*INDEX($G3:$I3,1,MATCH(Quarantine_Input!$B$23,Adjusted_RE!$G$2:$I$2))+(1-Quarantine_Input!$B$26)*(1-Quarantine_Input!B$19)*INDEX($L3:$N3,1,MATCH(Quarantine_Input!$B$23,Adjusted_RE!$L$2:$N$2))</f>
@@ -17022,6 +17022,7 @@
     <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17044,25 +17045,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>5.72</v>
@@ -17074,7 +17075,7 @@
         <v>11.66</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>5.72</v>
@@ -17086,7 +17087,7 @@
         <v>11.66</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>5.72</v>
@@ -17111,7 +17112,7 @@
       <c r="D3">
         <v>0.38895494824239191</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -17124,7 +17125,7 @@
       <c r="I3">
         <v>0.37967880703582518</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="3">
         <v>0</v>
       </c>
@@ -17151,7 +17152,7 @@
       <c r="D4">
         <v>0.35737086889293007</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
@@ -17164,7 +17165,7 @@
       <c r="I4">
         <v>0.34086098080999339</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="3">
         <v>1</v>
       </c>
@@ -17191,7 +17192,7 @@
       <c r="D5">
         <v>0.32578695452834089</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
@@ -17204,7 +17205,7 @@
       <c r="I5">
         <v>0.30204636036975113</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="3">
         <v>2</v>
       </c>
@@ -17231,7 +17232,7 @@
       <c r="D6">
         <v>0.29420294086792875</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
@@ -17244,7 +17245,7 @@
       <c r="I6">
         <v>0.26321258736197028</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3">
         <v>3</v>
       </c>
@@ -17271,7 +17272,7 @@
       <c r="D7">
         <v>0.26261891483889271</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
@@ -17284,7 +17285,7 @@
       <c r="I7">
         <v>0.2244067286577158</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="3">
         <v>4</v>
       </c>
@@ -17311,7 +17312,7 @@
       <c r="D8">
         <v>0.23103567688123569</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="3">
         <v>5</v>
       </c>
@@ -17324,7 +17325,7 @@
       <c r="I8">
         <v>0.18557875979089833</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="3">
         <v>5</v>
       </c>
@@ -17351,7 +17352,7 @@
       <c r="D9">
         <v>0.19947581563884964</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="3">
         <v>6</v>
       </c>
@@ -17364,7 +17365,7 @@
       <c r="I9">
         <v>0.14682598667895749</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="3">
         <v>6</v>
       </c>
@@ -17391,7 +17392,7 @@
       <c r="D10">
         <v>0.16810206665556879</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="3">
         <v>7</v>
       </c>
@@ -17404,7 +17405,7 @@
       <c r="I10">
         <v>0.10857870320912809</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="3">
         <v>7</v>
       </c>
@@ -17431,7 +17432,7 @@
       <c r="D11">
         <v>0.13743432593674332</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3">
         <v>8</v>
       </c>
@@ -17444,7 +17445,7 @@
       <c r="I11">
         <v>7.2260498262350856E-2</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="3">
         <v>8</v>
       </c>
@@ -17471,7 +17472,7 @@
       <c r="D12">
         <v>0.10843103102718597</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="3">
         <v>9</v>
       </c>
@@ -17484,7 +17485,7 @@
       <c r="I12">
         <v>4.0449110338284251E-2</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="3">
         <v>9</v>
       </c>
@@ -17511,7 +17512,7 @@
       <c r="D13">
         <v>8.2264569985248462E-2</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="3">
         <v>10</v>
       </c>
@@ -17524,7 +17525,7 @@
       <c r="I13">
         <v>1.6339760810726887E-2</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="3">
         <v>10</v>
       </c>
@@ -17551,7 +17552,7 @@
       <c r="D14">
         <v>5.9926450293818434E-2</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3">
         <v>11</v>
       </c>
@@ -17564,7 +17565,7 @@
       <c r="I14">
         <v>2.6245406926412103E-3</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="3">
         <v>11</v>
       </c>
@@ -17591,7 +17592,7 @@
       <c r="D15">
         <v>4.1924078714604997E-2</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="3">
         <v>12</v>
       </c>
@@ -17604,7 +17605,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="3">
         <v>12</v>
       </c>
@@ -17631,7 +17632,7 @@
       <c r="D16">
         <v>2.8207283730509101E-2</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3">
         <v>13</v>
       </c>
@@ -17644,7 +17645,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="3">
         <v>13</v>
       </c>
@@ -17671,7 +17672,7 @@
       <c r="D17">
         <v>1.8290834770280418E-2</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3">
         <v>14</v>
       </c>
@@ -17684,7 +17685,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="3">
         <v>14</v>
       </c>
@@ -17720,7 +17721,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <f>Quarantine_Input!B$19*INDEX($B$3:$D$3,1,MATCH(Quarantine_Input!$B$23,PQT_No_Test!$B$2:$D$2))+Quarantine_Input!$B$26*(1-Quarantine_Input!B$19)*INDEX($G$3:$I$3,1,MATCH(Quarantine_Input!$B$23,PQT_No_Test!$G$2:$I$2))+(1-Quarantine_Input!$B$26)*(1-Quarantine_Input!B$19)*INDEX($L$3:$N$3,1,MATCH(Quarantine_Input!$B$23,PQT_No_Test!$L$2:$N$2))</f>
@@ -17749,16 +17750,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -18205,6 +18206,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18227,25 +18229,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>5.72</v>
@@ -18257,7 +18259,7 @@
         <v>11.66</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>5.72</v>
@@ -18269,7 +18271,7 @@
         <v>11.66</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>5.72</v>
@@ -18294,7 +18296,7 @@
       <c r="D3">
         <v>0.28845353385684525</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -18307,7 +18309,7 @@
       <c r="I3">
         <v>0.32348033466341058</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="3">
         <v>0</v>
       </c>
@@ -18334,7 +18336,7 @@
       <c r="D4">
         <v>0.25686945861913252</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
@@ -18347,7 +18349,7 @@
       <c r="I4">
         <v>0.2846622972642977</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="3">
         <v>1</v>
       </c>
@@ -18374,7 +18376,7 @@
       <c r="D5">
         <v>0.22528550627781876</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
@@ -18387,7 +18389,7 @@
       <c r="I5">
         <v>0.24584506494328892</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="3">
         <v>2</v>
       </c>
@@ -18414,7 +18416,7 @@
       <c r="D6">
         <v>0.19370164605381046</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
@@ -18427,7 +18429,7 @@
       <c r="I6">
         <v>0.20701779957509317</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3">
         <v>3</v>
       </c>
@@ -18454,7 +18456,7 @@
       <c r="D7">
         <v>0.16213489004854581</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
@@ -18467,7 +18469,7 @@
       <c r="I7">
         <v>0.16822957295127461</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="3">
         <v>4</v>
       </c>
@@ -18494,7 +18496,7 @@
       <c r="D8">
         <v>0.13081624991421065</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="3">
         <v>5</v>
       </c>
@@ -18507,7 +18509,7 @@
       <c r="I8">
         <v>0.12973024394041296</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="3">
         <v>5</v>
       </c>
@@ -18534,7 +18536,7 @@
       <c r="D9">
         <v>0.10068105466608766</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="3">
         <v>6</v>
       </c>
@@ -18547,7 +18549,7 @@
       <c r="I9">
         <v>9.2726449998477303E-2</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="3">
         <v>6</v>
       </c>
@@ -18574,7 +18576,7 @@
       <c r="D10">
         <v>7.3494629033133488E-2</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="3">
         <v>7</v>
       </c>
@@ -18587,7 +18589,7 @@
       <c r="I10">
         <v>5.9578557226012276E-2</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="3">
         <v>7</v>
       </c>
@@ -18614,7 +18616,7 @@
       <c r="D11">
         <v>5.1160336063054333E-2</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3">
         <v>8</v>
       </c>
@@ -18627,7 +18629,7 @@
       <c r="I11">
         <v>3.3106690774492499E-2</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="3">
         <v>8</v>
       </c>
@@ -18654,7 +18656,7 @@
       <c r="D12">
         <v>3.4713736296970617E-2</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="3">
         <v>9</v>
       </c>
@@ -18667,7 +18669,7 @@
       <c r="I12">
         <v>1.50186788073991E-2</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="3">
         <v>9</v>
       </c>
@@ -18694,7 +18696,7 @@
       <c r="D13">
         <v>2.3797951345538082E-2</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="3">
         <v>10</v>
       </c>
@@ -18707,7 +18709,7 @@
       <c r="I13">
         <v>4.8924909218653499E-3</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="3">
         <v>10</v>
       </c>
@@ -18734,7 +18736,7 @@
       <c r="D14">
         <v>1.7004344524663779E-2</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3">
         <v>11</v>
       </c>
@@ -18747,7 +18749,7 @@
       <c r="I14">
         <v>6.5586919666799992E-4</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="3">
         <v>11</v>
       </c>
@@ -18774,7 +18776,7 @@
       <c r="D15">
         <v>1.2697932999033728E-2</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="3">
         <v>12</v>
       </c>
@@ -18787,7 +18789,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="3">
         <v>12</v>
       </c>
@@ -18814,7 +18816,7 @@
       <c r="D16">
         <v>9.6595070880193361E-3</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3">
         <v>13</v>
       </c>
@@ -18827,7 +18829,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="3">
         <v>13</v>
       </c>
@@ -18854,7 +18856,7 @@
       <c r="D17">
         <v>7.2522362899079817E-3</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3">
         <v>14</v>
       </c>
@@ -18867,7 +18869,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="3">
         <v>14</v>
       </c>
@@ -18903,16 +18905,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -19359,6 +19361,7 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19381,25 +19384,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="L1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="L1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>5.72</v>
@@ -19411,7 +19414,7 @@
         <v>11.66</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>5.72</v>
@@ -19423,7 +19426,7 @@
         <v>11.66</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>5.72</v>
@@ -19448,7 +19451,7 @@
       <c r="D3">
         <v>0.29631823083691672</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -19461,7 +19464,7 @@
       <c r="I3">
         <v>0.32437278300793621</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="3">
         <v>0</v>
       </c>
@@ -19488,7 +19491,7 @@
       <c r="D4">
         <v>0.26473425841857368</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="3">
         <v>1</v>
       </c>
@@ -19501,7 +19504,7 @@
       <c r="I4">
         <v>0.28556336919821196</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="3">
         <v>1</v>
       </c>
@@ -19528,7 +19531,7 @@
       <c r="D5">
         <v>0.23315019215960345</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="3">
         <v>2</v>
       </c>
@@ -19541,7 +19544,7 @@
       <c r="I5">
         <v>0.2467365619867106</v>
       </c>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="3">
         <v>2</v>
       </c>
@@ -19568,7 +19571,7 @@
       <c r="D6">
         <v>0.20156624690930622</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3">
         <v>3</v>
       </c>
@@ -19581,7 +19584,7 @@
       <c r="I6">
         <v>0.20791866853145344</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="3">
         <v>3</v>
       </c>
@@ -19608,7 +19611,7 @@
       <c r="D7">
         <v>0.16998293306910076</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3">
         <v>4</v>
       </c>
@@ -19621,7 +19624,7 @@
       <c r="I7">
         <v>0.16910997117507195</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="3">
         <v>4</v>
       </c>
@@ -19648,7 +19651,7 @@
       <c r="D8">
         <v>0.13845753365920516</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="3">
         <v>5</v>
       </c>
@@ -19661,7 +19664,7 @@
       <c r="I8">
         <v>0.1303564878079185</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="3">
         <v>5</v>
       </c>
@@ -19688,7 +19691,7 @@
       <c r="D9">
         <v>0.10766450417759532</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="3">
         <v>6</v>
       </c>
@@ -19701,7 +19704,7 @@
       <c r="I9">
         <v>9.2545187818156169E-2</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="3">
         <v>6</v>
       </c>
@@ -19728,7 +19731,7 @@
       <c r="D10">
         <v>7.9834024278512744E-2</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="3">
         <v>7</v>
       </c>
@@ -19741,7 +19744,7 @@
       <c r="I10">
         <v>5.8611427821771124E-2</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="3">
         <v>7</v>
       </c>
@@ -19768,7 +19771,7 @@
       <c r="D11">
         <v>5.756442954500917E-2</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="3">
         <v>8</v>
       </c>
@@ -19781,7 +19784,7 @@
       <c r="I11">
         <v>3.221249617111932E-2</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="3">
         <v>8</v>
       </c>
@@ -19808,7 +19811,7 @@
       <c r="D12">
         <v>4.1686674041101525E-2</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="3">
         <v>9</v>
       </c>
@@ -19821,7 +19824,7 @@
       <c r="I12">
         <v>1.474631057504458E-2</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="3">
         <v>9</v>
       </c>
@@ -19848,7 +19851,7 @@
       <c r="D13">
         <v>3.1183614520524372E-2</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="3">
         <v>10</v>
       </c>
@@ -19861,7 +19864,7 @@
       <c r="I13">
         <v>5.0077813705254369E-3</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="3">
         <v>10</v>
       </c>
@@ -19888,7 +19891,7 @@
       <c r="D14">
         <v>2.4279694183419399E-2</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="3">
         <v>11</v>
       </c>
@@ -19901,7 +19904,7 @@
       <c r="I14">
         <v>7.2241353100333536E-4</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="3">
         <v>11</v>
       </c>
@@ -19928,7 +19931,7 @@
       <c r="D15">
         <v>1.9286681315953905E-2</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="3">
         <v>12</v>
       </c>
@@ -19941,7 +19944,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="3">
         <v>12</v>
       </c>
@@ -19968,7 +19971,7 @@
       <c r="D16">
         <v>1.4955556112472936E-2</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3">
         <v>13</v>
       </c>
@@ -19981,7 +19984,7 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="3">
         <v>13</v>
       </c>
@@ -20008,7 +20011,7 @@
       <c r="D17">
         <v>1.1116545607490527E-2</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="3">
         <v>14</v>
       </c>
@@ -20021,7 +20024,7 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="3">
         <v>14</v>
       </c>
@@ -20057,16 +20060,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -20513,5 +20516,6 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Supplementary_File.xlsx
+++ b/Supplementary_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Files to send to Jeff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A86523-0949-48B4-9035-A6B253A6BF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1A4B5-9CC0-4008-82F0-F87310AB6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,10 @@
     <t>Effective reproductive number</t>
   </si>
   <si>
-    <t xml:space="preserve">This spreadsheet provides quarantine durations for the destination country for the scenarios of i) not testing; ii) an RT-PCR test on exit; iii) a rapid antigen test on exit; and iv) a rapid antigen test on entry and exit </t>
+    <t>Minimum quarantine duration specified by destination country</t>
   </si>
   <si>
-    <t>Minimum quarantine duration for destination country</t>
+    <t xml:space="preserve">This spreadsheet provides quarantine durations for the scenarios of i) not testing; ii) an RT-PCR test on exit; iii) a rapid antigen test on exit; and iv) a rapid antigen test on entry and exit. </t>
   </si>
 </sst>
 </file>
@@ -2116,8 +2116,8 @@
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2447,7 +2447,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2458,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -3657,7 +3657,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3666,7 +3666,7 @@
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="62.85546875" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3680,7 +3680,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="I1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
